--- a/Drives/MaxStorage.xlsx
+++ b/Drives/MaxStorage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Drives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4947D257-A3D3-4BDB-9C05-3021A2AA66AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4500C8D2-C542-473C-9EF8-3BF52F9CF372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{715E8F35-0725-4758-B89A-C0A41934C855}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t>Slot 1</t>
     <phoneticPr fontId="1"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>By placing an FFC in slot 2, we can exploit the extra spacing on the backplane</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MUX</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -106,18 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DSK1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSK2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>These two cars support the Hawk/Falcon drives</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CMD</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -138,10 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The FFC card is a double stacked card and protrudes into slot 12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PRT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,22 +154,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4x Falcon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40MB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3x Phoenix</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>144MB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Total Amount of Storage Space:</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -202,7 +170,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>560MB</t>
+    <t>288MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>480MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slot does not have a connector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dead slot next to FFC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2x Phoenix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2x Finch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>544MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Finch Floppy Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Phoenix = 6 disks each, for a total of 30 disks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Finch = 1 disk each, for a total of 2 disks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Card Layout for Max. Storage Using the 14-slot Backplane</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpSys Max. Acceptable Number of Disks is 32</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -313,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,9 +346,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,20 +364,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,10 +693,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C3:G20"/>
+  <dimension ref="C3:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -696,277 +710,503 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" ht="21">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="3:7" ht="21">
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="21" spans="3:8" ht="21">
+      <c r="C21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="E23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="E24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="21">
+      <c r="C29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="8" t="s">
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="21">
+      <c r="C46" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="21">
-      <c r="C20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="15"/>
+      <c r="G46" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C20:E20"/>
+  <mergeCells count="7">
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C29:G29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
